--- a/imageCreationExcel/back/111/111_1.xlsx
+++ b/imageCreationExcel/back/111/111_1.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.651420857310464</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.782528610593747</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4524530115298103</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_brightness5.651_gamma0.783_sharpness0.452.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8343433626360659</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3793304633219741</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17.9852521143815</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_E_contrast0.834_sharpness0.379_equalization17.985.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.605299186263451</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.806642562735742</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4160605407819407</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_brightness6.605_contrast0.807_sharpness0.416.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,15 +621,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.180390108644054</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.4535181452354917</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.16549091925997</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_E_contrast1.18_sharpness0.454_equalization13.165.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.062720043981224</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9757125521294676</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22.05705280393628</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_P_contrast1.063_sharpness0.976_equalization22.057.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8200916969601024</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6375828744953826</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11.3778193296477</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_9_contrast0.82_sharpness0.638_equalization11.378.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,16 +738,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.864648867641517</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9948153294032462</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6355084543878975</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_brightness8.865_gamma0.995_sharpness0.636.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.51125582865231</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9591639862001691</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.347564295310153</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_brightness18.511_contrast0.959_sharpness0.348.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9520791398413541</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8917666480652633</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>24.36653574729555</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_contrast0.952_sharpness0.892_equalization24.367.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.061930839080292</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8669960366295619</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>31.35876620343083</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_contrast1.062_gamma0.867_equalization31.359.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.058462134187449</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8217280938536036</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.50172941924604</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_contrast1.058_sharpness0.822_equalization12.502.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.103093021846212</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9636423533541384</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16.70647236268967</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_contrast1.103_sharpness0.964_equalization16.706.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23.86789290483682</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.959136424304974</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5026470810578808</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_brightness23.868_contrast0.959_gamma0.503.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8799449119206518</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.060573526959452</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>31.78846960261409</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_contrast0.88_gamma1.061_equalization31.788.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,24 +1074,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.31090344800307</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8716791271876434</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.831508318946655</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_brightness12.311_contrast0.872_sharpness0.832.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.375119199344376</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.131736507484043</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.6594353426754194</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_7_brightness4.375_contrast1.132_sharpness0.659.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.02412719130183</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8335516972831514</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9.436239501994111</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_P_gamma1.024_sharpness0.834_equalization9.436.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8075515817269114</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9570086772506353</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5690545446060786</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_contrast0.808_gamma0.957_sharpness0.569.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23.67881381638598</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8448013738269191</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5526632594148049</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_7_brightness23.679_gamma0.845_sharpness0.553.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1289,34 +1289,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9269582935249309</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3332379822653107</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>13.0673476310464</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast0.927_sharpness0.333_equalization13.067.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,15 +1335,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.638472986980648</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.030210412595658</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2852244843510129</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_brightness4.638_contrast1.03_sharpness0.285.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.1520915571035</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.504429034712946</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.2287924093609868</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_contrast1.152_gamma0.504_sharpness0.229.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21.72499836141321</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.072781028865834</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9637840969980334</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_brightness21.725_contrast1.073_sharpness0.964.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14.4505371972593</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.135781460939142</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.7767621590707326</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_brightness14.451_contrast1.136_gamma0.777.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9556421222997961</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8020571324912869</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.3244479644901244</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_contrast0.956_gamma0.802_sharpness0.324.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16.29209821613411</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.108334577441356</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.4211931799724887</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_brightness16.292_contrast1.108_sharpness0.421.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9732640060509024</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7292245348386012</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.1483873563892084</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_brightness0.973_gamma0.729_sharpness0.148.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.111610553967962</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9314377236361975</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.66248602099709</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_contrast1.112_sharpness0.931_equalization19.662.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18.18864000547649</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.70446550551315</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.1794563947682233</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_brightness18.189_gamma0.704_sharpness0.179.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9279901999650209</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.045934575136406</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.17726890444623</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_E_contrast0.928_gamma1.046_sharpness0.177.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,24 +1746,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8981902290455573</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1253657645940159</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>16.26607864416812</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_gamma0.898_sharpness0.125_equalization16.266.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.17378408511251</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9944028149843454</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.05063029785827181</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_brightness19.174_gamma0.994_sharpness0.051.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>27.88473573094759</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.084133963738263</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.006954437729840095</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness27.885_contrast1.084_sharpness0.007.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.026891942350539</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6743922138521046</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>21.8003796296728</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_gamma1.027_sharpness0.674_equalization21.8.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15.27381963770208</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.027682785881276</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.5979771684063329</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_brightness15.274_contrast1.028_gamma0.598.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4.079133586951299</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9639739192753309</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.9353306675400362</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_brightness4.079_contrast0.964_gamma0.935.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8.416362509510236</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.164793485959541</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.8853778791266648</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_brightness8.416_contrast1.165_sharpness0.885.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.235809782539525</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.185677372340918</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.7224730237787321</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_brightness3.236_contrast1.186_gamma0.722.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.80025716209244</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9146485545103555</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.6480597857399616</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_brightness10.8_contrast0.915_gamma0.648.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2129,34 +2129,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9860584807141247</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8958562711210925</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22.52539072808168</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_7_contrast0.986_gamma0.896_equalization22.525.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.697361475392732</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6667088967182087</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.9056571354506748</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_8_brightness4.697_gamma0.667_sharpness0.906.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,15 +2217,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23.98416316143421</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6367325030495483</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.5375259198449568</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_1_brightness23.984_gamma0.637_sharpness0.538.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>18.70061583275299</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.12424378456014</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.5372359651678771</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness18.701_contrast1.124_sharpness0.537.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8282070983805858</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8775137206092736</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10.43847105791269</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_contrast0.828_sharpness0.878_equalization10.438.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.793659265576821</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7059793423937114</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.6301408944918985</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_brightness2.794_gamma0.706_sharpness0.63.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.178281857454931</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7504101433752558</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.334391286731604</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_T_contrast1.178_gamma0.75_sharpness0.334.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.534187473452292</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5805308553186104</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8523854853567131</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_I_brightness1.534_gamma0.581_sharpness0.852.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29.90932863673694</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8089566562906425</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.8437344757647482</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_brightness29.909_gamma0.809_sharpness0.844.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
